--- a/Testdata/TC_50.xlsx
+++ b/Testdata/TC_50.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ARoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlUpK9sY1ZBrrZESpZhiTX67wUI3JssR4NFXJoWW8pkCBFmqIoik2RXtGnFAW6XbQJkO728i/B2rt96i/0zIVDUpKz1XZhrDnnNmfOnOsYvX0zo9Y1ieIgZA9L1YpTsgjzQj9glw9LCb8oVx+U3nZR58Yj9ARHeEY4EFvAxeKDmzh4WJpyPj+w7cViUVnUK2F0adccp2o/6vdG3pTMcDlgMcfMIyXD5b+eq+Silj/rE459zLHifFjqjrqVFgm8NsD6mOFLElWaSRwwEscdxgMekFhwRgRz0mr3v6cO5tYqDypVZK/BM8pmElBf0RUoFVzTwbZkHMyIW3Oqe2Vnr1yvjp39g13noO5Udvadd1NGQ4h6OOYjEl0HngSMOJ7NJbuzV686+7tO3UH2RiKQlRnARQPqD8l1EBO/RSiNt7KIrS+w4XE49XbGBPVyvFrQm6twFOH5dBxwSrZTY9hvWjOmdcmEuOgwjIgH9nsjlY7JYhBps47nPcCOp0HEl2283FrWaUyiwVwYaTtWF7VDxhuURPx0DndNfHAFQLg8Sgiy70FmTO0g9uA7YAnx3QtM4zxTAYnOwugqnmOPHEMc20LGgtEQ++BwPIh54MWZgDUMOonCOYiE3Zsh9Q9BbEq9AWNkdxkYWWzcDMOrVfFFJJL3Km8YbnWGjfw1OBpNw8WA0eUomcReFEyI326m1BtxSISk5m4lMQ9noEUGQgqWg/T75SX8gyhcxaA28YIZpicULBm7dRBUAKBGwsOLgLdCmsyYMekKFJ3BocbkxhzSrNEAbpgJw4esy1J65Q0bUUWGYbgwe64jpB1y4EbspY62jlglbgMsvcF1jLwUccrDgEKRyF9HDlp0jNGUEL7RKxQGiXx4KMqO26AU2dkSgWuCf4MargOVoyx/xo5zIH9gW4NGHebfT5ci0XEyG0wghq/lgdwq4FZACI5AmxSzK4CeBXx63EhV34BB6sD30q/jEETrnOKlBBuj5GGoyzya+EQlgS67kB4pdNPU9+LRGqgHce0izJbj5VwkA/seija5wAmF+sQhjVxmGWIFjBrx1SpNHoROI5pesCuqfwzl3/NnFQ8SpChxFS+cCYANVfdshOw8vcjyHumwyx5mlwnkUWPHVbhxL5EBxhFmsTiOSZsrnraZCKX3otK5m78CZK8g0ZjM5mGEaR+sERwmTNZJXQjArH3Mp3oF8UqJl1rWzlgNV1GdVNvXkcnAU7qLxJ4PvBxUUglXV+2FCvoiDAlH7Ic+FHhMg0lUcK2NOLimrOylTiZOt2UJTC0PLSaklO+Speg7soWGC091qylCrlALVHJHw529GvRSNUjXYo3kiYcEU6sDzScnVpddk5jPgO3AGpI48OErwPTAeodMSAChLk2kb3pr7jwfOozIewk00UupSgP0LUKKBJBELwOG6TqhwWQM7jnBEV3mCNVRe6EHdHc/+tftr5++ePb53cePX335wX/+/ssX//jp7ZMP4ePuL3+9/eQX6piKGI3xhBKp0Li5t+fUd8DRDAjppACV3U88LmHn57LSmzXSLatctDrd1lGvKbOIAabsootIRDD08DJMsuVIHUJuJK/UTj1BkbjjNCvpdQHbJqK8qygU3ek1KVLn8fcxKlu8fP75y+d/updbGyyrKNX9/d1ytfbaggN9fnWNzhQc0fWrpi6dKXbKzm65VssRr9CgIYxG0MMZO3V9V4wRTq3uVE0G940jbyJaRWlJY3xpr/ApUCtMGI+WxgXy6xQpHX8MIWLQKhRyC+2iX/741Z8fF6i0dTWkKAWUC5NIeZOdLqTo4+HYGg1Oh62ONe6MhJ9kuBydEv4NxHp3E08Fp2IswfQ7MBCLcdgqQZtXssILi2Bvai0hEnNxWHC2TVC10RuKXNXyKAqTubqRHEMG3UBpsslGjg25RuKkPdeSTobaQK50vf3bF5sY9EG0m52ygJvJLg9DBYwC5fA6aj/754uvPnrx7Nnd05/dfvXDggS9jxl4wM8hmvJL4/aQ8nS9WYGgs5E05pXz/Vx90UDRLp6EAeOxW30gO0W9QsBaFdLkb9SdQcmTgqW9AL4CQe/guHPDdWC7x8guAkDPOYZqG2YNtQGoHJ7Z9d+/+e3dr764+/Tpq4/+ePvxH24/+fTl89+9evJ7FXV3j5/e/eSJzvKrhUDqItp01fpZcvDzLBGNlqjd1tfv/9xiIbeg57ASmZG+fv+znDChqOxOMsnQyBlFiiqskeaZBZ+VU8XoUOAzLKoBaIkSVjcUuoiF88DLNnm3LESJuJOIb3XH5SQmVgjt1LfhJEXijPl/5dMsqqSevOXUqjWNVdqII0xwnDP9EQ0n0GSkCDlVrZAUuL6ZIaOV+x31Bs1GLyNRSgwiH4YwR4yG4gOlPaUoKd04XZlxIoMAFho/L6FiEF4jW0cZybk0ZuuJ8qLhi/S3eSArUMBcHkWqIWL6lXKUzKEb5rqBvR8vH2Ry/e+x6lXzHXG27raLeFjnsFAIi2gBkHiZmjRKpaluLIZX1c4eC9NkS8AVHnHAHPohUnVa19BXRrbIO50oCqONySfDpGR96KQho9iZxQ2NvFPVdfvZXaWANOGZDzXv6ROGbUIJ3+6Vzs64++H1G/PC3W/L2o0H1NfG3G70MGbJBOSfKoWj/L8vlcrZGlEEjZV41dj6aTEdV4cw5W6pjTqKZBQTIOyu3/4Ogyjmj0Qm0F8Kcm4g56pDfSQGLvUh1+ey3qkvfUgt3S6omYYuVw/GIe0Fs2DLsdBJ47soBGw5n6sWrrudp4jSckxuoMHMSYCkOPkBlA0x8mwnTTks5FLDL15o4uByyrdV7K0JJj6ZOGVvQmrlHd/ZK+8TUi9Xq/A/9mo1x9kVzztaOGSOgCy23MROLyz7Q477X46Nd/sBGgAA</t>
+          <t>2RsAAB+LCAAAAAAAAAOlGVlvI0n5r7T8BBJ2H3Ymh2p65StZCzuObIdM9gWVu8txkXa3t7s6id8WCbRoWYQQmkXLKZ4WITGMYFdaZjj+y2qSGZ74C3x19GU7O3SIIqXru+qrr76zgt65WXjaFQkjGviPK2bNqGjEdwKX+hePKzGbVc1HlXds1L1xiHeCQ7wgDIg14PKjg5uIPq7MGVse6Pr19XXtul4LwgvdMgxTfzLoj505WeAq9SOGfYdUUi737VwVG7XdxYAw7GKGJefjSm/cq7UJdToAG2AfX5Cw1ooj6pMo6vqMMkoizhkSzEi7M/iOPJht1R7VTKRvwDPKVkw9V9IVKCVc0cG2ZEIXxLYMy6gae1WrMTH2Dxr1g4ZZ22nsvpcwpoSojyM2JuEVdQRgzPBiKdiNPath7DfqDdhtKxHIygxgo6HnjsgVjYjbJp4XlbKIri6w6TA4dTljGkjP8SpBD1fhKMTL+YQyj5RlPwxC4oChHrT3Mbkehsp+k2UfsJM5Ddmqg1elZZ1GJBwuuTXKsdqoE/is6ZGQnS7hUokLdw4Im4UxQfo9yIypQyMHvqkfE9eeYS/KMxWQ6CwIL6MldsgxBKzOZVz7XoBd8CxGI0adKBOwgUEnYbAEkbB7K/DcQxCbUG/BpLJ7PhiZb9wKgst18UUkEl4g/AFudYFT+RtwNJ4H10PfW43jaeSEdErcTiuh3opDPPYUdzuOWLAALTIQkrAcZDCoruAHwm0dgzrEoQvsnXhgyciug6ACADVjFswoawdevPBTk65B0RkcakJu0kOmazSEG/a54QO/5yf00hu2oooMo+A63XMTIeyQAzcjJ3G0TcQ6cQdgyQ1uYsSl8FMeUg+qQf46ctCiY4znhLCtXiExiCe+Q15f7KbnIT1bInBN8G9QwzagRFTF78QwDsQvbJuiUdd376dLkOg4XgynEMNX4kC2Cbg1EIIjeC0P+5cAPaNsftxMVN+CQfLA99Jv4hBE69LDKwFOjZKHoZ7veLFLZBLo+TPhkVw3RX0vHm2A+hDXPAeQGY49qDMMssRFlgDWwKgZXa7T5EHoNPSS+7N5FY+gjDvuouZA/uOlquYECw7QoXqejZGep+dJ3CFd/6KP/YsY0mRqpnV46j08wCch9iN+njQrrjnSdiKUmF1maztvYaSvIdGELJZBiL0BWIMexr6odyrPg/kGmM3VCsLRI07OtAlrylVUJ9H2bWQirqTuPG/n4yoHFVTck2WbIGO6CEPczwaBC4Uae3QaFjxnKw6uKatqiQ/x05WscInloVWEjPFtsuL9Q7ZQ8MlqSWwzQYgVaoNK9njU2LN2jLoF2ZivkTjxiGBP60ITyYjW869IxBbAdqCNSERd+KLYO9DeJVNCIZKFidRNl+bO86HDkLwfQzO8Eqo0Qd8ipEgAOfKC+tjbJEwxGYN9TnDorXKE8qj9wAG6ux/96/bXz1+9+Ozuo6dvvvjBf/7+y1f/+Ontsx/Cx91f/nr78S/kMSUxmuCpR4RCk9benlFvgKOlIMSNq4uS7sYOE7Dzc1HI0zVSradYtLu99lG/BR6VAybsvEmIeTD08SqIs+VYHkJsJK5UTzxBktgTIS9bF7Adwqu3jELeZV6RInUefx+jtMXrl5+9fvmne7mVwbKCYe7v71RN6631xDJMc4MurSe8e5c9m5oNzEbV2KlaVo54jQaNYMSBFi21U8+166axb1h1w0z0B1jiyNuI1lFK0gRf6Gt8EtQOYp+Fq9QF8usEKRx/AiGSomUo5BbKRb/48Zs/Py1QKesqSFEKKBfEofQmPVkI0cejiTYeno7aXW3SHXM/yXA5Oin8a4jV7mk8FZzK92PsfQsGWz7WahXo4ipaMNMIdubaCiIxF4cFZ9sGlRs9UOS6lkdhEC/ljeQYMugWyjSbbOXYkmsETthzI+lkqC3kUtfbv32+jUEdRLnZqU+ZPRq0tIWf+qWAoQJGgnJ4FbWf/vPVlx++evHi7vnPbr/8fkGC2iedZ8DPIZryy9TtIeWperMGQWdjYcxL47u5+qKAvBs8CajPItt8JBpBtULAanJp4i/qLaDkCcHCXgBfg6B3cdS9YSqw7WOkFwGg5xJDtQ2yfjkFyBye2fXfv/nt3a8+v/vk+ZsP/3j70R9uP/7k9cvfvXn2exl1d0+f3/3kmcry64VA6MK7cNn7aWKuczQejRqv3dpXH/xc8wOmQc+hxSIjffXBpzlhXFHRnWSSoZFLFSmqsEGaZ+Z8Wk6VVIcCX8oiG4A2L2H1lEIVsWBJnWyT96pcFI87gfhGb1KNI6IF0E59E05SJM6Y/1c+xSJL6smuYZmWwkpt+BGmOMqZ/sgLptBkJAgxNK2RFLi+niGjFfsd9YetZj8jkUoMQxdmLINPfvwD9aKkq0wnhAwCWGj2nNjjs+0G2SYKJV+51KWrIXHWdHnK2z5jFShg1A5D2QT56oVxHC+hA2aqab0fL95Ycj3vsexP811wtu51inhY57BQ/IpoDhB4kY4USqamXsTnUdnCHnPTZEvAFd5lwBzqEVF2V1fQS4Y6zzXdMAzCrQknwyRkA+ieIYvomcVTGp1vKTttN7urBJAkufSD9+ppLgw6xCOs9Atbwj0Irh7MC3dflrUXDT1XGbPcuJGaJROQf2bkjlJWmWYYQtvEnyRKvwv2qX/ZK3d66Oes/X1jurODG9jYNfHOI9OYWbsz8JrpvrsLjaMQysdPLoJPLnx2K7cJNItF9my6HsG8XVKaNLBg5LMoWEoEpErs6Rod0jBiT3iKUl8Scp5CzmXr/MRWL+BP5PpcFGL5pd6e1WZ6QeskvzD5Ih14fbqgJedVI0lCRSHgBsul7C3LXijUvGNyA51vTgJk6+n3oJ7xWaycNBlVkORT/kTWOJ6WFqcnzCeA5471MO6uC33Zw7nF6y71/g8FROf1UBE9P6IXc1b2XiFM6+QRsarWzHGqDVhUoRpPqy6e7ZuGMau7OxZ/lVPCoTpQcl1yE15TaARzRXk+fe0fdPZ/ARuxe1HZGwAA</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MM-yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -519,4 +519,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>17</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CA18637-581D-408A-BD39-275651D07C71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_50.xlsx
+++ b/Testdata/TC_50.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>2RsAAB+LCAAAAAAAAAOlGVlvI0n5r7T8BBJ2H3Ymh2p65StZCzuObIdM9gWVu8txkXa3t7s6id8WCbRoWYQQmkXLKZ4WITGMYFdaZjj+y2qSGZ74C3x19GU7O3SIIqXru+qrr76zgt65WXjaFQkjGviPK2bNqGjEdwKX+hePKzGbVc1HlXds1L1xiHeCQ7wgDIg14PKjg5uIPq7MGVse6Pr19XXtul4LwgvdMgxTfzLoj505WeAq9SOGfYdUUi737VwVG7XdxYAw7GKGJefjSm/cq7UJdToAG2AfX5Cw1ooj6pMo6vqMMkoizhkSzEi7M/iOPJht1R7VTKRvwDPKVkw9V9IVKCVc0cG2ZEIXxLYMy6gae1WrMTH2Dxr1g4ZZ22nsvpcwpoSojyM2JuEVdQRgzPBiKdiNPath7DfqDdhtKxHIygxgo6HnjsgVjYjbJp4XlbKIri6w6TA4dTljGkjP8SpBD1fhKMTL+YQyj5RlPwxC4oChHrT3Mbkehsp+k2UfsJM5Ddmqg1elZZ1GJBwuuTXKsdqoE/is6ZGQnS7hUokLdw4Im4UxQfo9yIypQyMHvqkfE9eeYS/KMxWQ6CwIL6MldsgxBKzOZVz7XoBd8CxGI0adKBOwgUEnYbAEkbB7K/DcQxCbUG/BpLJ7PhiZb9wKgst18UUkEl4g/AFudYFT+RtwNJ4H10PfW43jaeSEdErcTiuh3opDPPYUdzuOWLAALTIQkrAcZDCoruAHwm0dgzrEoQvsnXhgyciug6ACADVjFswoawdevPBTk65B0RkcakJu0kOmazSEG/a54QO/5yf00hu2oooMo+A63XMTIeyQAzcjJ3G0TcQ6cQdgyQ1uYsSl8FMeUg+qQf46ctCiY4znhLCtXiExiCe+Q15f7KbnIT1bInBN8G9QwzagRFTF78QwDsQvbJuiUdd376dLkOg4XgynEMNX4kC2Cbg1EIIjeC0P+5cAPaNsftxMVN+CQfLA99Jv4hBE69LDKwFOjZKHoZ7veLFLZBLo+TPhkVw3RX0vHm2A+hDXPAeQGY49qDMMssRFlgDWwKgZXa7T5EHoNPSS+7N5FY+gjDvuouZA/uOlquYECw7QoXqejZGep+dJ3CFd/6KP/YsY0mRqpnV46j08wCch9iN+njQrrjnSdiKUmF1maztvYaSvIdGELJZBiL0BWIMexr6odyrPg/kGmM3VCsLRI07OtAlrylVUJ9H2bWQirqTuPG/n4yoHFVTck2WbIGO6CEPczwaBC4Uae3QaFjxnKw6uKatqiQ/x05WscInloVWEjPFtsuL9Q7ZQ8MlqSWwzQYgVaoNK9njU2LN2jLoF2ZivkTjxiGBP60ITyYjW869IxBbAdqCNSERd+KLYO9DeJVNCIZKFidRNl+bO86HDkLwfQzO8Eqo0Qd8ipEgAOfKC+tjbJEwxGYN9TnDorXKE8qj9wAG6ux/96/bXz1+9+Ozuo6dvvvjBf/7+y1f/+Ontsx/Cx91f/nr78S/kMSUxmuCpR4RCk9benlFvgKOlIMSNq4uS7sYOE7Dzc1HI0zVSradYtLu99lG/BR6VAybsvEmIeTD08SqIs+VYHkJsJK5UTzxBktgTIS9bF7Adwqu3jELeZV6RInUefx+jtMXrl5+9fvmne7mVwbKCYe7v71RN6631xDJMc4MurSe8e5c9m5oNzEbV2KlaVo54jQaNYMSBFi21U8+166axb1h1w0z0B1jiyNuI1lFK0gRf6Gt8EtQOYp+Fq9QF8usEKRx/AiGSomUo5BbKRb/48Zs/Py1QKesqSFEKKBfEofQmPVkI0cejiTYeno7aXW3SHXM/yXA5Oin8a4jV7mk8FZzK92PsfQsGWz7WahXo4ipaMNMIdubaCiIxF4cFZ9sGlRs9UOS6lkdhEC/ljeQYMugWyjSbbOXYkmsETthzI+lkqC3kUtfbv32+jUEdRLnZqU+ZPRq0tIWf+qWAoQJGgnJ4FbWf/vPVlx++evHi7vnPbr/8fkGC2iedZ8DPIZryy9TtIeWperMGQWdjYcxL47u5+qKAvBs8CajPItt8JBpBtULAanJp4i/qLaDkCcHCXgBfg6B3cdS9YSqw7WOkFwGg5xJDtQ2yfjkFyBye2fXfv/nt3a8+v/vk+ZsP/3j70R9uP/7k9cvfvXn2exl1d0+f3/3kmcry64VA6MK7cNn7aWKuczQejRqv3dpXH/xc8wOmQc+hxSIjffXBpzlhXFHRnWSSoZFLFSmqsEGaZ+Z8Wk6VVIcCX8oiG4A2L2H1lEIVsWBJnWyT96pcFI87gfhGb1KNI6IF0E59E05SJM6Y/1c+xSJL6smuYZmWwkpt+BGmOMqZ/sgLptBkJAgxNK2RFLi+niGjFfsd9YetZj8jkUoMQxdmLINPfvwD9aKkq0wnhAwCWGj2nNjjs+0G2SYKJV+51KWrIXHWdHnK2z5jFShg1A5D2QT56oVxHC+hA2aqab0fL95Ycj3vsexP811wtu51inhY57BQ/IpoDhB4kY4USqamXsTnUdnCHnPTZEvAFd5lwBzqEVF2V1fQS4Y6zzXdMAzCrQknwyRkA+ieIYvomcVTGp1vKTttN7urBJAkufSD9+ppLgw6xCOs9Atbwj0Irh7MC3dflrUXDT1XGbPcuJGaJROQf2bkjlJWmWYYQtvEnyRKvwv2qX/ZK3d66Oes/X1jurODG9jYNfHOI9OYWbsz8JrpvrsLjaMQysdPLoJPLnx2K7cJNItF9my6HsG8XVKaNLBg5LMoWEoEpErs6Rod0jBiT3iKUl8Scp5CzmXr/MRWL+BP5PpcFGL5pd6e1WZ6QeskvzD5Ih14fbqgJedVI0lCRSHgBsul7C3LXijUvGNyA51vTgJk6+n3oJ7xWaycNBlVkORT/kTWOJ6WFqcnzCeA5471MO6uC33Zw7nF6y71/g8FROf1UBE9P6IXc1b2XiFM6+QRsarWzHGqDVhUoRpPqy6e7ZuGMau7OxZ/lVPCoTpQcl1yE15TaARzRXk+fe0fdPZ/ARuxe1HZGwAA</t>
+          <t>ARoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlUpK9sY1ZBrrZESpZhiTX67wUI3JssR4NFXJoWW8pkCBFmqIoik2RXtGnFAW6XbQJkO728i/B2rt96i/0zIVDUpKz1XZhrDnnNmfOnOsYvX0zo9Y1ieIgZA9L1YpTsgjzQj9glw9LCb8oVx+U3nZR58Yj9ARHeEY4EFvAxeKDmzh4WJpyPj+w7cViUVnUK2F0adccp2o/6vdG3pTMcDlgMcfMIyXD5b+eq+Silj/rE459zLHifFjqjrqVFgm8NsD6mOFLElWaSRwwEscdxgMekFhwRgRz0mr3v6cO5tYqDypVZK/BM8pmElBf0RUoFVzTwbZkHMyIW3Oqe2Vnr1yvjp39g13noO5Udvadd1NGQ4h6OOYjEl0HngSMOJ7NJbuzV686+7tO3UH2RiKQlRnARQPqD8l1EBO/RSiNt7KIrS+w4XE49XbGBPVyvFrQm6twFOH5dBxwSrZTY9hvWjOmdcmEuOgwjIgH9nsjlY7JYhBps47nPcCOp0HEl2283FrWaUyiwVwYaTtWF7VDxhuURPx0DndNfHAFQLg8Sgiy70FmTO0g9uA7YAnx3QtM4zxTAYnOwugqnmOPHEMc20LGgtEQ++BwPIh54MWZgDUMOonCOYiE3Zsh9Q9BbEq9AWNkdxkYWWzcDMOrVfFFJJL3Km8YbnWGjfw1OBpNw8WA0eUomcReFEyI326m1BtxSISk5m4lMQ9noEUGQgqWg/T75SX8gyhcxaA28YIZpicULBm7dRBUAKBGwsOLgLdCmsyYMekKFJ3BocbkxhzSrNEAbpgJw4esy1J65Q0bUUWGYbgwe64jpB1y4EbspY62jlglbgMsvcF1jLwUccrDgEKRyF9HDlp0jNGUEL7RKxQGiXx4KMqO26AU2dkSgWuCf4MargOVoyx/xo5zIH9gW4NGHebfT5ci0XEyG0wghq/lgdwq4FZACI5AmxSzK4CeBXx63EhV34BB6sD30q/jEETrnOKlBBuj5GGoyzya+EQlgS67kB4pdNPU9+LRGqgHce0izJbj5VwkA/seija5wAmF+sQhjVxmGWIFjBrx1SpNHoROI5pesCuqfwzl3/NnFQ8SpChxFS+cCYANVfdshOw8vcjyHumwyx5mlwnkUWPHVbhxL5EBxhFmsTiOSZsrnraZCKX3otK5m78CZK8g0ZjM5mGEaR+sERwmTNZJXQjArH3Mp3oF8UqJl1rWzlgNV1GdVNvXkcnAU7qLxJ4PvBxUUglXV+2FCvoiDAlH7Ic+FHhMg0lUcK2NOLimrOylTiZOt2UJTC0PLSaklO+Speg7soWGC091qylCrlALVHJHw529GvRSNUjXYo3kiYcEU6sDzScnVpddk5jPgO3AGpI48OErwPTAeodMSAChLk2kb3pr7jwfOozIewk00UupSgP0LUKKBJBELwOG6TqhwWQM7jnBEV3mCNVRe6EHdHc/+tftr5++ePb53cePX335wX/+/ssX//jp7ZMP4ePuL3+9/eQX6piKGI3xhBKp0Li5t+fUd8DRDAjppACV3U88LmHn57LSmzXSLatctDrd1lGvKbOIAabsootIRDD08DJMsuVIHUJuJK/UTj1BkbjjNCvpdQHbJqK8qygU3ek1KVLn8fcxKlu8fP75y+d/updbGyyrKNX9/d1ytfbaggN9fnWNzhQc0fWrpi6dKXbKzm65VssRr9CgIYxG0MMZO3V9V4wRTq3uVE0G940jbyJaRWlJY3xpr/ApUCtMGI+WxgXy6xQpHX8MIWLQKhRyC+2iX/741Z8fF6i0dTWkKAWUC5NIeZOdLqTo4+HYGg1Oh62ONe6MhJ9kuBydEv4NxHp3E08Fp2IswfQ7MBCLcdgqQZtXssILi2Bvai0hEnNxWHC2TVC10RuKXNXyKAqTubqRHEMG3UBpsslGjg25RuKkPdeSTobaQK50vf3bF5sY9EG0m52ygJvJLg9DBYwC5fA6aj/754uvPnrx7Nnd05/dfvXDggS9jxl4wM8hmvJL4/aQ8nS9WYGgs5E05pXz/Vx90UDRLp6EAeOxW30gO0W9QsBaFdLkb9SdQcmTgqW9AL4CQe/guHPDdWC7x8guAkDPOYZqG2YNtQGoHJ7Z9d+/+e3dr764+/Tpq4/+ePvxH24/+fTl89+9evJ7FXV3j5/e/eSJzvKrhUDqItp01fpZcvDzLBGNlqjd1tfv/9xiIbeg57ASmZG+fv+znDChqOxOMsnQyBlFiiqskeaZBZ+VU8XoUOAzLKoBaIkSVjcUuoiF88DLNnm3LESJuJOIb3XH5SQmVgjt1LfhJEXijPl/5dMsqqSevOXUqjWNVdqII0xwnDP9EQ0n0GSkCDlVrZAUuL6ZIaOV+x31Bs1GLyNRSgwiH4YwR4yG4gOlPaUoKd04XZlxIoMAFho/L6FiEF4jW0cZybk0ZuuJ8qLhi/S3eSArUMBcHkWqIWL6lXKUzKEb5rqBvR8vH2Ry/e+x6lXzHXG27raLeFjnsFAIi2gBkHiZmjRKpaluLIZX1c4eC9NkS8AVHnHAHPohUnVa19BXRrbIO50oCqONySfDpGR96KQho9iZxQ2NvFPVdfvZXaWANOGZDzXv6ROGbUIJ3+6Vzs64++H1G/PC3W/L2o0H1NfG3G70MGbJBOSfKoWj/L8vlcrZGlEEjZV41dj6aTEdV4cw5W6pjTqKZBQTIOyu3/4Ogyjmj0Qm0F8Kcm4g56pDfSQGLvUh1+ey3qkvfUgt3S6omYYuVw/GIe0Fs2DLsdBJ47soBGw5n6sWrrudp4jSckxuoMHMSYCkOPkBlA0x8mwnTTks5FLDL15o4uByyrdV7K0JJj6ZOGVvQmrlHd/ZK+8TUi9Xq/A/9mo1x9kVzztaOGSOgCy23MROLyz7Q477X46Nd/sBGgAA</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MM-yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -519,37 +519,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>17</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CA18637-581D-408A-BD39-275651D07C71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>